--- a/dados/Conclusoes/log_analise_valores.xlsx
+++ b/dados/Conclusoes/log_analise_valores.xlsx
@@ -490,16 +490,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Valores Invalidos</t>
+          <t>Carga Dados</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variavel PROCEDEN - Código Municipio invalido </t>
+          <t>Carregamento da base dos dados a serem analisados - Casos completos</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>128</v>
+        <v>4680029</v>
       </c>
     </row>
     <row r="5">
@@ -513,12 +513,10 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variavel MUUH - Código Municipio invalido </t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
+          <t>Corrigir valores invalidos para null. Ver arquivo valores_tornados_null.xslx</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -526,16 +524,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carga Dados</t>
+          <t>Inferir valor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Carregamento da base dos dados a serem analisados - Casos analiticos</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>3555000</v>
+          <t>Inferir o valor de BASMAIMP a partir de BASDIAGSP. Regra 0 &lt;= 1. Falta definir outras regras aplicaveis</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3029</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -544,15 +544,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Valores Invalidos</t>
+          <t>Inferir valor</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Corrigir valores invalidos para null. Ver arquivo valores_tornados_null.xslx</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>Inferir o valor de ESTDFIMT a partir de DATAOBITO ate 730 dias apos o inicio do tratamento</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>321611</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -560,18 +564,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Inferir valor</t>
+          <t>Valores Invalidos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Inferir o valor de BASMAIMP a partir de BASDIAGSP. Regra 0 &lt;= 1. Falta definir outras regras aplicaveis</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2267</t>
-        </is>
+          <t xml:space="preserve">Variavel PROCEDEN - Código Municipio invalido </t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="9">
@@ -580,18 +582,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Inferir valor</t>
+          <t>Valores Invalidos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Inferir o valor de ESTDFIMT a partir de DATAOBITO ate 730 dias apos o inicio do tratamento</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>276382</t>
-        </is>
+          <t xml:space="preserve">Variavel MUUH - Código Municipio invalido </t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
